--- a/SchedulingData/dynamic13/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_2.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.2</v>
+        <v>70.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.16</v>
+        <v>52.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.464</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>55.2</v>
+        <v>73.36</v>
       </c>
       <c r="E4" t="n">
-        <v>27.14</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.04000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26.136</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80.04000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="D6" t="n">
-        <v>131.2</v>
+        <v>121.14</v>
       </c>
       <c r="E6" t="n">
-        <v>23.64</v>
+        <v>24.176</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>131.74</v>
+        <v>80.78</v>
       </c>
       <c r="E7" t="n">
-        <v>22.616</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>64.88</v>
+        <v>63.82</v>
       </c>
       <c r="E8" t="n">
-        <v>27.192</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="9">
@@ -599,231 +599,231 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55.2</v>
+        <v>121.14</v>
       </c>
       <c r="D9" t="n">
-        <v>98.52</v>
+        <v>185.62</v>
       </c>
       <c r="E9" t="n">
-        <v>23.448</v>
+        <v>20.848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98.52</v>
+        <v>70.2</v>
       </c>
       <c r="D10" t="n">
-        <v>138.42</v>
+        <v>113.18</v>
       </c>
       <c r="E10" t="n">
-        <v>20.588</v>
+        <v>23.452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>131.74</v>
+        <v>63.82</v>
       </c>
       <c r="D11" t="n">
-        <v>182.02</v>
+        <v>123.32</v>
       </c>
       <c r="E11" t="n">
-        <v>19.208</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>64.88</v>
+        <v>123.32</v>
       </c>
       <c r="D12" t="n">
-        <v>144.28</v>
+        <v>190.3</v>
       </c>
       <c r="E12" t="n">
-        <v>23.352</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>182.02</v>
+        <v>73.36</v>
       </c>
       <c r="D13" t="n">
-        <v>235.22</v>
+        <v>120.06</v>
       </c>
       <c r="E13" t="n">
-        <v>17.008</v>
+        <v>22.764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>80.78</v>
       </c>
       <c r="D14" t="n">
-        <v>73.81999999999999</v>
+        <v>135.62</v>
       </c>
       <c r="E14" t="n">
-        <v>25.788</v>
+        <v>22.728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>73.81999999999999</v>
+        <v>120.06</v>
       </c>
       <c r="D15" t="n">
-        <v>138.72</v>
+        <v>171.62</v>
       </c>
       <c r="E15" t="n">
-        <v>22.408</v>
+        <v>19.228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.16</v>
+        <v>185.62</v>
       </c>
       <c r="D16" t="n">
-        <v>119.74</v>
+        <v>235.42</v>
       </c>
       <c r="E16" t="n">
-        <v>23.296</v>
+        <v>17.988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>138.72</v>
+        <v>52.3</v>
       </c>
       <c r="D17" t="n">
-        <v>198.62</v>
+        <v>113.06</v>
       </c>
       <c r="E17" t="n">
-        <v>17.548</v>
+        <v>23.484</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>144.28</v>
+        <v>113.18</v>
       </c>
       <c r="D18" t="n">
-        <v>197.44</v>
+        <v>173.18</v>
       </c>
       <c r="E18" t="n">
-        <v>19.656</v>
+        <v>18.592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>138.42</v>
+        <v>171.62</v>
       </c>
       <c r="D19" t="n">
-        <v>216.48</v>
+        <v>221.52</v>
       </c>
       <c r="E19" t="n">
-        <v>16.892</v>
+        <v>15.868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>235.22</v>
+        <v>173.18</v>
       </c>
       <c r="D20" t="n">
-        <v>310.98</v>
+        <v>228.12</v>
       </c>
       <c r="E20" t="n">
-        <v>13.032</v>
+        <v>14.728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -831,70 +831,70 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>119.74</v>
+        <v>228.12</v>
       </c>
       <c r="D21" t="n">
-        <v>167.74</v>
+        <v>281.02</v>
       </c>
       <c r="E21" t="n">
-        <v>19.136</v>
+        <v>10.568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>198.62</v>
+        <v>113.06</v>
       </c>
       <c r="D22" t="n">
-        <v>261.02</v>
+        <v>152.52</v>
       </c>
       <c r="E22" t="n">
-        <v>13.948</v>
+        <v>20.668</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>197.44</v>
+        <v>221.52</v>
       </c>
       <c r="D23" t="n">
-        <v>238.38</v>
+        <v>279.68</v>
       </c>
       <c r="E23" t="n">
-        <v>16.692</v>
+        <v>12.172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>310.98</v>
+        <v>152.52</v>
       </c>
       <c r="D24" t="n">
-        <v>368.42</v>
+        <v>233.52</v>
       </c>
       <c r="E24" t="n">
-        <v>9.907999999999999</v>
+        <v>17.148</v>
       </c>
     </row>
     <row r="25">
@@ -903,93 +903,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>238.38</v>
+        <v>233.52</v>
       </c>
       <c r="D25" t="n">
-        <v>289.34</v>
+        <v>304.58</v>
       </c>
       <c r="E25" t="n">
-        <v>13.216</v>
+        <v>13.172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>261.02</v>
+        <v>235.42</v>
       </c>
       <c r="D26" t="n">
-        <v>295.42</v>
+        <v>286.02</v>
       </c>
       <c r="E26" t="n">
-        <v>11.148</v>
+        <v>15.548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>131.2</v>
+        <v>190.3</v>
       </c>
       <c r="D27" t="n">
-        <v>187.7</v>
+        <v>257.92</v>
       </c>
       <c r="E27" t="n">
-        <v>20.6</v>
+        <v>15.708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>295.42</v>
+        <v>286.02</v>
       </c>
       <c r="D28" t="n">
-        <v>342.18</v>
+        <v>334.02</v>
       </c>
       <c r="E28" t="n">
-        <v>7.612</v>
+        <v>13.348</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>167.74</v>
+        <v>304.58</v>
       </c>
       <c r="D29" t="n">
-        <v>207.2</v>
+        <v>382.6</v>
       </c>
       <c r="E29" t="n">
-        <v>16.32</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>187.7</v>
+        <v>279.68</v>
       </c>
       <c r="D30" t="n">
-        <v>244.3</v>
+        <v>327.34</v>
       </c>
       <c r="E30" t="n">
-        <v>16.58</v>
+        <v>9.036</v>
       </c>
     </row>
     <row r="31">
@@ -1017,207 +1017,207 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>207.2</v>
+        <v>257.92</v>
       </c>
       <c r="D31" t="n">
-        <v>279.72</v>
+        <v>317.62</v>
       </c>
       <c r="E31" t="n">
-        <v>13.148</v>
+        <v>12.828</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>216.48</v>
+        <v>135.62</v>
       </c>
       <c r="D32" t="n">
-        <v>296.5</v>
+        <v>197.52</v>
       </c>
       <c r="E32" t="n">
-        <v>13.98</v>
+        <v>18.648</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>289.34</v>
+        <v>317.62</v>
       </c>
       <c r="D33" t="n">
-        <v>351.24</v>
+        <v>386.82</v>
       </c>
       <c r="E33" t="n">
-        <v>9.135999999999999</v>
+        <v>10.028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>296.5</v>
+        <v>281.02</v>
       </c>
       <c r="D34" t="n">
-        <v>351.3</v>
+        <v>367.02</v>
       </c>
       <c r="E34" t="n">
-        <v>11.1</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>342.18</v>
+        <v>382.6</v>
       </c>
       <c r="D35" t="n">
-        <v>392.08</v>
+        <v>432.82</v>
       </c>
       <c r="E35" t="n">
-        <v>4.252</v>
+        <v>6.568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>351.24</v>
+        <v>197.52</v>
       </c>
       <c r="D36" t="n">
-        <v>391.94</v>
+        <v>245.06</v>
       </c>
       <c r="E36" t="n">
-        <v>6.696</v>
+        <v>15.524</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>244.3</v>
+        <v>334.02</v>
       </c>
       <c r="D37" t="n">
-        <v>330.98</v>
+        <v>396.22</v>
       </c>
       <c r="E37" t="n">
-        <v>13.512</v>
+        <v>9.747999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>279.72</v>
+        <v>245.06</v>
       </c>
       <c r="D38" t="n">
-        <v>351.02</v>
+        <v>291.32</v>
       </c>
       <c r="E38" t="n">
-        <v>9.608000000000001</v>
+        <v>13.028</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>351.3</v>
+        <v>291.32</v>
       </c>
       <c r="D39" t="n">
-        <v>420</v>
+        <v>347.88</v>
       </c>
       <c r="E39" t="n">
-        <v>7.32</v>
+        <v>9.492000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>351.02</v>
+        <v>367.02</v>
       </c>
       <c r="D40" t="n">
-        <v>398.78</v>
+        <v>426.4</v>
       </c>
       <c r="E40" t="n">
-        <v>6.472</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>368.42</v>
+        <v>327.34</v>
       </c>
       <c r="D41" t="n">
-        <v>417.9</v>
+        <v>426.04</v>
       </c>
       <c r="E41" t="n">
-        <v>6.58</v>
+        <v>5.256</v>
       </c>
     </row>
   </sheetData>
